--- a/docs/StructureDefinition-MedicationRequestNonVA.xlsx
+++ b/docs/StructureDefinition-MedicationRequestNonVA.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestNonVA.xlsx
+++ b/docs/StructureDefinition-MedicationRequestNonVA.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestNonVA.xlsx
+++ b/docs/StructureDefinition-MedicationRequestNonVA.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestNonVA.xlsx
+++ b/docs/StructureDefinition-MedicationRequestNonVA.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestNonVA.xlsx
+++ b/docs/StructureDefinition-MedicationRequestNonVA.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -568,10 +568,14 @@
     <t>NonVAMed.NonVAMed.LocationIEN</t>
   </si>
   <si>
-    <t>Medication.EnteredAt,Medication.EnteringOrganization</t>
-  </si>
-  <si>
-    <t>med.facility (&gt;44-3),med.location (&gt;44-.01),pharmacy (med).facility (&gt;44-3),pharmacy (med).location (&gt;44-.01)</t>
+    <t>Medication.EnteredAt
+Medication.EnteringOrganization</t>
+  </si>
+  <si>
+    <t>med.facility (&gt;44-3)
+med.location (&gt;44-.01)
+pharmacy (med).facility (&gt;44-3)
+pharmacy (med).location (&gt;44-.01)</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -800,10 +804,14 @@
     <t>NonVAMed.NonVAMed.CPRSOrderIEN</t>
   </si>
   <si>
-    <t>Medication.ExternalId,Medication.PlacerId</t>
-  </si>
-  <si>
-    <t>med.id,med.orderID,pharmacy (med).id,pharmacy (med).orderID</t>
+    <t>Medication.ExternalId
+Medication.PlacerId</t>
+  </si>
+  <si>
+    <t>med.id
+med.orderID
+pharmacy (med).id
+pharmacy (med).orderID</t>
   </si>
   <si>
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
@@ -932,10 +940,14 @@
     <t>NonVAMed.NonVAMed.NonVAMedStatus</t>
   </si>
   <si>
-    <t>Medication.PharmacyStatus,Medication.VAStatus</t>
-  </si>
-  <si>
-    <t>med.status,med.vaStatus,pharmacy (med).status,pharmacy (med).vaStatus</t>
+    <t>Medication.PharmacyStatus
+Medication.VAStatus</t>
+  </si>
+  <si>
+    <t>med.status
+med.vaStatus
+pharmacy (med).status
+pharmacy (med).vaStatus</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -1208,7 +1220,8 @@
     <t>Medication.DrugProduct</t>
   </si>
   <si>
-    <t>med.product [m] (&gt;50-.01),pharmacy (med).product [m] (&gt;50-.01)</t>
+    <t>med.product [m] (&gt;50-.01)
+pharmacy (med).product [m] (&gt;50-.01)</t>
   </si>
   <si>
     <t>MedicationRequest.medication[x]:medicationReference</t>
@@ -1474,7 +1487,8 @@
     <t>Medication.EnteredOn</t>
   </si>
   <si>
-    <t>med.ordered,pharmacy (med).ordered</t>
+    <t>med.ordered
+pharmacy (med).ordered</t>
   </si>
   <si>
     <t>Request.authoredOn</t>
@@ -1624,10 +1638,14 @@
     <t>NonVAMed.NonVAMed.DocumentedByStaffIEN</t>
   </si>
   <si>
-    <t>Medication.EnteredBy,Medication.OrderedBy</t>
-  </si>
-  <si>
-    <t>med.currentProvider (&gt;200-.01),med.orderingProvider (&gt;200-.01),pharmacy (med).currentProvider (&gt;200-.01),pharmacy (med).orderingProvider (&gt;200-.01)</t>
+    <t>Medication.EnteredBy
+Medication.OrderedBy</t>
+  </si>
+  <si>
+    <t>med.currentProvider (&gt;200-.01)
+med.orderingProvider (&gt;200-.01)
+pharmacy (med).currentProvider (&gt;200-.01)
+pharmacy (med).orderingProvider (&gt;200-.01)</t>
   </si>
   <si>
     <t>.participation[typeCode=TRANS].role[classCode=ASSIGNED].code (HealthcareProviderType)</t>
@@ -2395,10 +2413,14 @@
     <t>NonVAMed.NonVAMed.Schedule</t>
   </si>
   <si>
-    <t>Medication.Sig,Medication.Frequency</t>
-  </si>
-  <si>
-    <t>med.schedule,med.sig,pharmacy (med).schedule,pharmacy (med).sig</t>
+    <t>Medication.Sig
+Medication.Frequency</t>
+  </si>
+  <si>
+    <t>med.schedule
+med.sig
+pharmacy (med).schedule
+pharmacy (med).sig</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.asNeeded[x]</t>
@@ -2507,10 +2529,14 @@
     <t>NonVAMed.NonVAMed.MedicationRoute</t>
   </si>
   <si>
-    <t>Medication.Route,Medication.Sig</t>
-  </si>
-  <si>
-    <t>med.route,med.sig,pharmacy (med).route,pharmacy (med).sig</t>
+    <t>Medication.Route
+Medication.Sig</t>
+  </si>
+  <si>
+    <t>med.route
+med.sig
+pharmacy (med).route
+pharmacy (med).sig</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.method</t>
@@ -2661,10 +2687,15 @@
     <t>NonVAMed.NonVAMed.Dosage</t>
   </si>
   <si>
-    <t>Medication.Sig,Medication.DoseQuantity,Medication.TextInstruction</t>
-  </si>
-  <si>
-    <t>med.dose,med.sig,pharmacy (med).dose,pharmacy (med).sig</t>
+    <t>Medication.Sig
+Medication.DoseQuantity
+Medication.TextInstruction</t>
+  </si>
+  <si>
+    <t>med.dose
+med.sig
+pharmacy (med).dose
+pharmacy (med).sig</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x]:doseQuantity.value</t>
@@ -3572,8 +3603,8 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="76.03125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="37.671875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="54.24609375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="124.9453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="44.26953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="255.0" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="245.42578125" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-MedicationRequestNonVA.xlsx
+++ b/docs/StructureDefinition-MedicationRequestNonVA.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-MedicationRequestNonVA.xlsx
+++ b/docs/StructureDefinition-MedicationRequestNonVA.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
